--- a/games_data.xlsx
+++ b/games_data.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M73" sqref="M73"/>
@@ -3980,6 +3980,3218 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.169</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-7.85</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.124</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.224</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.158</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-6.15</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-5.68</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-11.88</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="J91" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-5.56</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-7.35</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J95" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-16.02</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-8.58</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-4.86</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-2.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="I115" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J116" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.171</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-16.09</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-11.21</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.362</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-5.69</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-4.77</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-3.63</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.168</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-9.24</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.272</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I137" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.234</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-15.92</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J141" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.306</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-6.79</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.253</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-7.72</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-5.64</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="L144" t="n">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/games_data.xlsx
+++ b/games_data.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M412"/>
+  <dimension ref="A1:M454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M252" sqref="M252"/>
@@ -19333,6 +19333,1854 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="E413" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J413" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="K413" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="L413" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="E414" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J414" t="n">
+        <v>-5.85</v>
+      </c>
+      <c r="K414" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="L414" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H415" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="I415" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L415" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>-0.104</v>
+      </c>
+      <c r="E416" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I416" t="n">
+        <v>-3.41</v>
+      </c>
+      <c r="J416" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L416" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H417" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="I417" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="J417" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="H418" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="I418" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="J418" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K418" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L418" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H419" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J419" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L419" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F420" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H420" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J420" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="L420" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I421" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J421" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="K421" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="L421" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>-0.104</v>
+      </c>
+      <c r="E422" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I422" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J422" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="K422" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="L422" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I423" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J423" t="n">
+        <v>-7.56</v>
+      </c>
+      <c r="K423" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E424" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F424" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H424" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="I424" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J424" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H425" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I425" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="J425" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F426" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H426" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="I426" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="J426" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="E427" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F427" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="H427" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="I427" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="J427" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L427" t="n">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F428" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="H428" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="I428" t="n">
+        <v>-7.83</v>
+      </c>
+      <c r="J428" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L428" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="E429" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I429" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="J429" t="n">
+        <v>-4.58</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L429" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E430" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I430" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="J430" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L430" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>-0.182</v>
+      </c>
+      <c r="E431" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I431" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="J431" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="K431" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="E432" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I432" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="J432" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="K432" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="L432" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="E433" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="H433" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="I433" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="J433" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L433" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H434" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="I434" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="J434" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K434" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L434" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="E435" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F435" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I435" t="n">
+        <v>-7.68</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L435" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>-0.255</v>
+      </c>
+      <c r="E436" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I436" t="n">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="J436" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="K436" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="L436" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E437" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>-12.44</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L437" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I438" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J438" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="K438" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E439" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F439" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="H439" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="I439" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J439" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L439" t="n">
+        <v>-2.3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>-0.124</v>
+      </c>
+      <c r="E440" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F440" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="J440" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L440" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="E441" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F441" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="H441" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="I441" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J441" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H442" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="I442" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J442" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L442" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H443" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="I443" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="J443" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L443" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="E444" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H444" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="I444" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="J444" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L444" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E445" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I445" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="J445" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="K445" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="L445" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>-0.06900000000000001</v>
+      </c>
+      <c r="E446" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F446" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I446" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="J446" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="K446" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E447" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H447" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J447" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L447" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="H448" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I448" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="J448" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L448" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="E449" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="H449" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I449" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K449" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="L449" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="E450" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F450" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I450" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="J450" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E451" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F451" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="H451" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="I451" t="n">
+        <v>-10.46</v>
+      </c>
+      <c r="J451" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L451" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J452" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="K452" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F453" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H453" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="I453" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J453" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L453" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="E454" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F454" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I454" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K454" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/games_data.xlsx
+++ b/games_data.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M454"/>
+  <dimension ref="A1:M507"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M252" sqref="M252"/>
@@ -21181,6 +21181,2338 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="H455" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J455" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L455" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.181</v>
+      </c>
+      <c r="E456" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I456" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="J456" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K456" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="L456" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E457" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="F457" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I457" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="J457" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="K457" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="L457" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E458" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J458" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L458" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F459" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G459" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H459" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="I459" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="J459" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K459" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="L459" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>-0.262</v>
+      </c>
+      <c r="E460" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I460" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="J460" t="n">
+        <v>-10.42</v>
+      </c>
+      <c r="K460" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="H461" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="I461" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="J461" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L461" t="n">
+        <v>-2.3</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="E462" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I462" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J462" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K462" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L462" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="E463" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="H463" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="I463" t="n">
+        <v>-7.82</v>
+      </c>
+      <c r="J463" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L463" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>-0.247</v>
+      </c>
+      <c r="E464" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J464" t="n">
+        <v>-7.53</v>
+      </c>
+      <c r="K464" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="L464" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H465" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="I465" t="n">
+        <v>-5.95</v>
+      </c>
+      <c r="J465" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="K465" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L465" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I466" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="J466" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="K466" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F467" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I467" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="J467" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="K467" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H468" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="I468" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J468" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K468" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="L468" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E469" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I469" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="J469" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="K469" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L469" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="E470" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F470" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J470" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="K470" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H471" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I471" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J471" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L471" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>-0.309</v>
+      </c>
+      <c r="E472" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="F472" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="H472" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I472" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="J472" t="n">
+        <v>-13.37</v>
+      </c>
+      <c r="K472" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F473" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H473" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="I473" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J473" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>-0.145</v>
+      </c>
+      <c r="E474" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I474" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="J474" t="n">
+        <v>-4.45</v>
+      </c>
+      <c r="K474" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="E475" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="F475" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I475" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L475" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="E476" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F476" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I476" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="J476" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K476" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="L476" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H477" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="I477" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="J477" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K477" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="L477" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="E478" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H478" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L478" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1</v>
+      </c>
+      <c r="F479" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H479" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="I479" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K479" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H480" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="I480" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L480" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F481" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H481" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="I481" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J481" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K481" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L481" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F482" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="H482" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="I482" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="J482" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L482" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E483" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="H483" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="I483" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="J483" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="K483" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L483" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>-0.078</v>
+      </c>
+      <c r="E484" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I484" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="J484" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="K484" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="L484" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F485" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H485" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J485" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>-0.116</v>
+      </c>
+      <c r="E486" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I486" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="J486" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L486" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>-0.252</v>
+      </c>
+      <c r="E487" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="F487" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G487" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I487" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="J487" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K487" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="L487" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F488" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I488" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J488" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="K488" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L488" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E489" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F489" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H489" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="I489" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="J489" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L489" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="E490" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G490" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J490" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="K490" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L490" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2023-04-05</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>-0.283</v>
+      </c>
+      <c r="E491" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G491" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I491" t="n">
+        <v>-16.82</v>
+      </c>
+      <c r="J491" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="K491" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="L491" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2023-04-05</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G492" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H492" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="I492" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L492" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2023-04-05</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0</v>
+      </c>
+      <c r="G493" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="H493" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="I493" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H494" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="I494" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="J494" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F495" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H495" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="I495" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="J495" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L495" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E496" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F496" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G496" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="H496" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="I496" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="J496" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L496" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I497" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="J497" t="n">
+        <v>-6.79</v>
+      </c>
+      <c r="K497" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>-0.077</v>
+      </c>
+      <c r="E498" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G498" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I498" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="J498" t="n">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="K498" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E499" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F499" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H499" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J499" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E500" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="F500" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G500" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I500" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="J500" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="E501" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G501" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H501" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="I501" t="n">
+        <v>-9.34</v>
+      </c>
+      <c r="J501" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L501" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="E502" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I502" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="J502" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="K502" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="L502" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="E503" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F503" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H503" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J503" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K503" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>-0.255</v>
+      </c>
+      <c r="E504" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G504" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I504" t="n">
+        <v>-6.43</v>
+      </c>
+      <c r="J504" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="K504" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>-0.154</v>
+      </c>
+      <c r="E505" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F505" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G505" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I505" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="J505" t="n">
+        <v>-7.12</v>
+      </c>
+      <c r="K505" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F506" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I506" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J506" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="K506" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="L506" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F507" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G507" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H507" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="I507" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="J507" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L507" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/games_data.xlsx
+++ b/games_data.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M507"/>
+  <dimension ref="A1:M544"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M252" sqref="M252"/>
@@ -23513,6 +23513,1634 @@
         <v>-0.1</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>-0.293</v>
+      </c>
+      <c r="E508" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G508" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="H508" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I508" t="n">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="J508" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="K508" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="L508" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>-0.367</v>
+      </c>
+      <c r="E509" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G509" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I509" t="n">
+        <v>-7.01</v>
+      </c>
+      <c r="J509" t="n">
+        <v>-12.23</v>
+      </c>
+      <c r="K509" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="L509" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>-0.189</v>
+      </c>
+      <c r="E510" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G510" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I510" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="J510" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L510" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Calgary Flames</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F511" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I511" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K511" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="L511" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>-0.279</v>
+      </c>
+      <c r="E512" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G512" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I512" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="J512" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="K512" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="L512" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E513" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G513" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I513" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="J513" t="n">
+        <v>-4.87</v>
+      </c>
+      <c r="K513" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="L513" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="E514" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I514" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="J514" t="n">
+        <v>-5.84</v>
+      </c>
+      <c r="K514" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="L514" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H515" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J515" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L515" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F516" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G516" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J516" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L516" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>-0.171</v>
+      </c>
+      <c r="E517" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J517" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="K517" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E518" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F518" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H518" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J518" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>New York Islanders</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="E519" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F519" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I519" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K519" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>-0.131</v>
+      </c>
+      <c r="E520" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G520" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I520" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="J520" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L520" t="n">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H521" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="I521" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J521" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L521" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F522" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H522" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="I522" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="J522" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L522" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E523" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="H523" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="I523" t="n">
+        <v>-7.36</v>
+      </c>
+      <c r="J523" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L523" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H524" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J524" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L524" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F525" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H525" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="I525" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="J525" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L525" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F526" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H526" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="I526" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="J526" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E527" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H527" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="I527" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="J527" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>-0.06900000000000001</v>
+      </c>
+      <c r="E528" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I528" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="J528" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="K528" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="H529" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L529" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Los Angeles Kings</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>-0.272</v>
+      </c>
+      <c r="E530" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I530" t="n">
+        <v>-9.43</v>
+      </c>
+      <c r="J530" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L530" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Vancouver Canucks</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Arizona Coyotes</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="E531" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="H531" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="I531" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="J531" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L531" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Buffalo Sabres</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J532" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="K532" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L532" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Pittsburgh Penguins</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jackets</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E533" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I533" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="J533" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="K533" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="L533" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Philadelphia Flyers</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Chicago Blackhawks</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.093</v>
+      </c>
+      <c r="E534" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F534" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J534" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K534" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Winnipeg Jets</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Colorado Avalanche</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I535" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J535" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>St. Louis Blues</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Dallas Stars</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E536" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F536" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H536" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="I536" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J536" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L536" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>San Jose Sharks</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Edmonton Oilers</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E537" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F537" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H537" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="I537" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="J537" t="n">
+        <v>-5.56</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L537" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Carolina Hurricanes</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>-0.117</v>
+      </c>
+      <c r="E538" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J538" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="K538" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Boston Bruins</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>-0.401</v>
+      </c>
+      <c r="E539" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H539" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I539" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="J539" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="K539" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L539" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Nashville Predators</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="E540" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I540" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K540" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="L540" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>New York Rangers</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H541" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="I541" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="J541" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Vegas Golden Knights</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Seattle Kraken</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="E542" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F542" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I542" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="J542" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="K542" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="L542" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Tampa Bay Lightning</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F543" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H543" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="I543" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J543" t="n">
+        <v>1</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>New Jersey Devils</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Washington Capitals</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>-0.191</v>
+      </c>
+      <c r="E544" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I544" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="J544" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="K544" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="L544" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
